--- a/House Effects/UK General Election Polling - 2020-08-30.xlsx
+++ b/House Effects/UK General Election Polling - 2020-08-30.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="90">
   <si>
     <t>company</t>
   </si>
@@ -300,6 +300,9 @@
   <si>
     <t>Links to individual polls are maintained from the initial source.</t>
   </si>
+  <si>
+    <t>I also checked the polling company archives.</t>
+  </si>
 </sst>
 </file>
 
@@ -308,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -401,9 +404,6 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <b/>
     </font>
   </fonts>
   <fills count="31">
@@ -594,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -756,9 +756,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1452,10 +1449,10 @@
         <v>1161.0</v>
       </c>
       <c r="G12" s="22">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="H12" s="23">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="I12" s="23">
         <v>0.08</v>
@@ -1464,14 +1461,14 @@
         <v>0.06</v>
       </c>
       <c r="K12" s="23">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L12" s="24">
         <v>0.06</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="13">
@@ -5481,7 +5478,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="26" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -5491,6 +5488,11 @@
     <row r="19">
       <c r="A19" s="25" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="25" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
